--- a/programs/UIpath/data/challenge.xlsx
+++ b/programs/UIpath/data/challenge.xlsx
@@ -5,23 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\newhorizonenggcollege\2024\kasturinagarpuc\workorders\rpa\programs\UIpath\UIpath\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kaushalya\consultancy\newhorizonenggcollege\2024\kasturinagarpuc\workorders\rpa\programs\UIpath\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2BFF29-2D0F-4124-99A5-487FC3AD34F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BADB45-7C3A-4414-8FBA-2F81D5A88AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="181">
   <si>
     <t>First Name</t>
   </si>
@@ -973,9 +974,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4298,4 +4299,2262 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44EC8B5E-0ABA-4FA9-A149-6B1D3F6C5947}">
+  <dimension ref="A1:G112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2">
+        <v>104431647</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="4">
+        <v>43335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3">
+        <v>104431682</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="4">
+        <v>44264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <v>104431646</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="4">
+        <v>45511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5">
+        <v>104431604</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="4">
+        <v>44960</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6">
+        <v>104431632</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="4">
+        <v>43434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <v>104431657</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="4">
+        <v>43175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8">
+        <v>104431654</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="4">
+        <v>43884</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9">
+        <v>104431652</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="4">
+        <v>44957</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10">
+        <v>104431606</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="4">
+        <v>42968</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11">
+        <v>104431651</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="4">
+        <v>43884</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12">
+        <v>104431602</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="4">
+        <v>45141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13">
+        <v>104431648</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="4">
+        <v>44142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14">
+        <v>104431680</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="4">
+        <v>44776</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15">
+        <v>104431622</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="4">
+        <v>42793</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16">
+        <v>104431620</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="4">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17">
+        <v>104431619</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="4">
+        <v>43610</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18">
+        <v>104431658</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="4">
+        <v>44545</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19">
+        <v>104431626</v>
+      </c>
+      <c r="D19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="4">
+        <v>43435</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20">
+        <v>104431605</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="4">
+        <v>43237</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21">
+        <v>104431625</v>
+      </c>
+      <c r="D21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="4">
+        <v>43522</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22">
+        <v>104431659</v>
+      </c>
+      <c r="D22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="4">
+        <v>42876</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23">
+        <v>104431664</v>
+      </c>
+      <c r="D23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="4">
+        <v>45535</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24">
+        <v>104431635</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="4">
+        <v>45090</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25">
+        <v>104431661</v>
+      </c>
+      <c r="D25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="4">
+        <v>43019</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26">
+        <v>104431640</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26" s="4">
+        <v>44540</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27">
+        <v>104431642</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="4">
+        <v>44740</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28">
+        <v>104431683</v>
+      </c>
+      <c r="D28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="4">
+        <v>42977</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29">
+        <v>104431687</v>
+      </c>
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="4">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30">
+        <v>104431681</v>
+      </c>
+      <c r="D30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" t="s">
+        <v>71</v>
+      </c>
+      <c r="G30" s="4">
+        <v>42986</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31">
+        <v>104431613</v>
+      </c>
+      <c r="D31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="4">
+        <v>44144</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32">
+        <v>104431636</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="4">
+        <v>45641</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33">
+        <v>104431667</v>
+      </c>
+      <c r="D33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" s="4">
+        <v>43470</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34">
+        <v>104431655</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="4">
+        <v>45063</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35">
+        <v>104431637</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="4">
+        <v>45429</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36">
+        <v>104431614</v>
+      </c>
+      <c r="D36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="4">
+        <v>44857</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37">
+        <v>104431676</v>
+      </c>
+      <c r="D37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" s="4">
+        <v>44782</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38">
+        <v>104431617</v>
+      </c>
+      <c r="D38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" s="4">
+        <v>44302</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39">
+        <v>104431649</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" t="s">
+        <v>71</v>
+      </c>
+      <c r="G39" s="4">
+        <v>44620</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40">
+        <v>104431638</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" t="s">
+        <v>71</v>
+      </c>
+      <c r="G40" s="4">
+        <v>44522</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41">
+        <v>104431672</v>
+      </c>
+      <c r="D41" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" t="s">
+        <v>71</v>
+      </c>
+      <c r="G41" s="4">
+        <v>45355</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42">
+        <v>104431675</v>
+      </c>
+      <c r="D42" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G42" s="4">
+        <v>44558</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43">
+        <v>104431618</v>
+      </c>
+      <c r="D43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" t="s">
+        <v>71</v>
+      </c>
+      <c r="G43" s="4">
+        <v>44150</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44">
+        <v>104431628</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" t="s">
+        <v>71</v>
+      </c>
+      <c r="G44" s="4">
+        <v>43620</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45">
+        <v>104431623</v>
+      </c>
+      <c r="D45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45" t="s">
+        <v>71</v>
+      </c>
+      <c r="G45" s="4">
+        <v>43255</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46">
+        <v>104431678</v>
+      </c>
+      <c r="D46" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" t="s">
+        <v>71</v>
+      </c>
+      <c r="G46" s="4">
+        <v>43879</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47">
+        <v>104431679</v>
+      </c>
+      <c r="D47" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" t="s">
+        <v>71</v>
+      </c>
+      <c r="G47" s="4">
+        <v>43390</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48">
+        <v>104431610</v>
+      </c>
+      <c r="D48" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" t="s">
+        <v>78</v>
+      </c>
+      <c r="F48" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" s="4">
+        <v>42850</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49">
+        <v>104431629</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" t="s">
+        <v>70</v>
+      </c>
+      <c r="F49" t="s">
+        <v>71</v>
+      </c>
+      <c r="G49" s="4">
+        <v>42881</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50">
+        <v>104431597</v>
+      </c>
+      <c r="D50" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" t="s">
+        <v>127</v>
+      </c>
+      <c r="F50" t="s">
+        <v>71</v>
+      </c>
+      <c r="G50" s="4">
+        <v>45311</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>128</v>
+      </c>
+      <c r="C51">
+        <v>104431611</v>
+      </c>
+      <c r="D51" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" t="s">
+        <v>78</v>
+      </c>
+      <c r="F51" t="s">
+        <v>71</v>
+      </c>
+      <c r="G51" s="4">
+        <v>43613</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52">
+        <v>104431594</v>
+      </c>
+      <c r="D52" t="s">
+        <v>126</v>
+      </c>
+      <c r="E52" t="s">
+        <v>127</v>
+      </c>
+      <c r="F52" t="s">
+        <v>71</v>
+      </c>
+      <c r="G52" s="4">
+        <v>44776</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53">
+        <v>104431674</v>
+      </c>
+      <c r="D53" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53" t="s">
+        <v>71</v>
+      </c>
+      <c r="G53" s="4">
+        <v>43564</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54">
+        <v>104431607</v>
+      </c>
+      <c r="D54" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" t="s">
+        <v>78</v>
+      </c>
+      <c r="F54" t="s">
+        <v>71</v>
+      </c>
+      <c r="G54" s="4">
+        <v>45177</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55">
+        <v>104431665</v>
+      </c>
+      <c r="D55" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" t="s">
+        <v>71</v>
+      </c>
+      <c r="G55" s="4">
+        <v>44694</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56">
+        <v>104431603</v>
+      </c>
+      <c r="D56" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" t="s">
+        <v>78</v>
+      </c>
+      <c r="F56" t="s">
+        <v>71</v>
+      </c>
+      <c r="G56" s="4">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>134</v>
+      </c>
+      <c r="C57">
+        <v>104431643</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" t="s">
+        <v>70</v>
+      </c>
+      <c r="F57" t="s">
+        <v>71</v>
+      </c>
+      <c r="G57" s="4">
+        <v>43577</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58">
+        <v>104431608</v>
+      </c>
+      <c r="D58" t="s">
+        <v>77</v>
+      </c>
+      <c r="E58" t="s">
+        <v>78</v>
+      </c>
+      <c r="F58" t="s">
+        <v>71</v>
+      </c>
+      <c r="G58" s="4">
+        <v>42796</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>136</v>
+      </c>
+      <c r="C59">
+        <v>104431590</v>
+      </c>
+      <c r="D59" t="s">
+        <v>126</v>
+      </c>
+      <c r="E59" t="s">
+        <v>127</v>
+      </c>
+      <c r="F59" t="s">
+        <v>71</v>
+      </c>
+      <c r="G59" s="4">
+        <v>44186</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60">
+        <v>104431666</v>
+      </c>
+      <c r="D60" t="s">
+        <v>73</v>
+      </c>
+      <c r="E60" t="s">
+        <v>74</v>
+      </c>
+      <c r="F60" t="s">
+        <v>71</v>
+      </c>
+      <c r="G60" s="4">
+        <v>42922</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61">
+        <v>104431671</v>
+      </c>
+      <c r="D61" t="s">
+        <v>73</v>
+      </c>
+      <c r="E61" t="s">
+        <v>74</v>
+      </c>
+      <c r="F61" t="s">
+        <v>71</v>
+      </c>
+      <c r="G61" s="4">
+        <v>44553</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62">
+        <v>104431616</v>
+      </c>
+      <c r="D62" t="s">
+        <v>89</v>
+      </c>
+      <c r="E62" t="s">
+        <v>90</v>
+      </c>
+      <c r="F62" t="s">
+        <v>71</v>
+      </c>
+      <c r="G62" s="4">
+        <v>44364</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>140</v>
+      </c>
+      <c r="C63">
+        <v>104431644</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" t="s">
+        <v>70</v>
+      </c>
+      <c r="F63" t="s">
+        <v>71</v>
+      </c>
+      <c r="G63" s="4">
+        <v>43173</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64">
+        <v>104431589</v>
+      </c>
+      <c r="D64" t="s">
+        <v>126</v>
+      </c>
+      <c r="E64" t="s">
+        <v>127</v>
+      </c>
+      <c r="F64" t="s">
+        <v>71</v>
+      </c>
+      <c r="G64" s="4">
+        <v>44423</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65">
+        <v>104431650</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" t="s">
+        <v>70</v>
+      </c>
+      <c r="F65" t="s">
+        <v>71</v>
+      </c>
+      <c r="G65" s="4">
+        <v>42741</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66">
+        <v>104431686</v>
+      </c>
+      <c r="D66" t="s">
+        <v>73</v>
+      </c>
+      <c r="E66" t="s">
+        <v>74</v>
+      </c>
+      <c r="F66" t="s">
+        <v>71</v>
+      </c>
+      <c r="G66" s="4">
+        <v>45198</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>144</v>
+      </c>
+      <c r="C67">
+        <v>104431673</v>
+      </c>
+      <c r="D67" t="s">
+        <v>73</v>
+      </c>
+      <c r="E67" t="s">
+        <v>74</v>
+      </c>
+      <c r="F67" t="s">
+        <v>71</v>
+      </c>
+      <c r="G67" s="4">
+        <v>45302</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68">
+        <v>104431685</v>
+      </c>
+      <c r="D68" t="s">
+        <v>73</v>
+      </c>
+      <c r="E68" t="s">
+        <v>74</v>
+      </c>
+      <c r="F68" t="s">
+        <v>71</v>
+      </c>
+      <c r="G68" s="4">
+        <v>44442</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69">
+        <v>104431669</v>
+      </c>
+      <c r="D69" t="s">
+        <v>73</v>
+      </c>
+      <c r="E69" t="s">
+        <v>74</v>
+      </c>
+      <c r="F69" t="s">
+        <v>71</v>
+      </c>
+      <c r="G69" s="4">
+        <v>43174</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70">
+        <v>104431600</v>
+      </c>
+      <c r="D70" t="s">
+        <v>126</v>
+      </c>
+      <c r="E70" t="s">
+        <v>127</v>
+      </c>
+      <c r="F70" t="s">
+        <v>71</v>
+      </c>
+      <c r="G70" s="4">
+        <v>43105</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71">
+        <v>104431591</v>
+      </c>
+      <c r="D71" t="s">
+        <v>126</v>
+      </c>
+      <c r="E71" t="s">
+        <v>127</v>
+      </c>
+      <c r="F71" t="s">
+        <v>71</v>
+      </c>
+      <c r="G71" s="4">
+        <v>43593</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72">
+        <v>104431645</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" t="s">
+        <v>70</v>
+      </c>
+      <c r="F72" t="s">
+        <v>71</v>
+      </c>
+      <c r="G72" s="4">
+        <v>45262</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73">
+        <v>104431612</v>
+      </c>
+      <c r="D73" t="s">
+        <v>77</v>
+      </c>
+      <c r="E73" t="s">
+        <v>78</v>
+      </c>
+      <c r="F73" t="s">
+        <v>71</v>
+      </c>
+      <c r="G73" s="4">
+        <v>43985</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74">
+        <v>104431599</v>
+      </c>
+      <c r="D74" t="s">
+        <v>126</v>
+      </c>
+      <c r="E74" t="s">
+        <v>127</v>
+      </c>
+      <c r="F74" t="s">
+        <v>71</v>
+      </c>
+      <c r="G74" s="4">
+        <v>43476</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75">
+        <v>104431587</v>
+      </c>
+      <c r="D75" t="s">
+        <v>126</v>
+      </c>
+      <c r="E75" t="s">
+        <v>127</v>
+      </c>
+      <c r="F75" t="s">
+        <v>71</v>
+      </c>
+      <c r="G75" s="4">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76">
+        <v>104431639</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" t="s">
+        <v>70</v>
+      </c>
+      <c r="F76" t="s">
+        <v>71</v>
+      </c>
+      <c r="G76" s="4">
+        <v>45177</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>154</v>
+      </c>
+      <c r="C77">
+        <v>104431662</v>
+      </c>
+      <c r="D77" t="s">
+        <v>73</v>
+      </c>
+      <c r="E77" t="s">
+        <v>74</v>
+      </c>
+      <c r="F77" t="s">
+        <v>71</v>
+      </c>
+      <c r="G77" s="4">
+        <v>45118</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78">
+        <v>104431595</v>
+      </c>
+      <c r="D78" t="s">
+        <v>126</v>
+      </c>
+      <c r="E78" t="s">
+        <v>127</v>
+      </c>
+      <c r="F78" t="s">
+        <v>71</v>
+      </c>
+      <c r="G78" s="4">
+        <v>44974</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79">
+        <v>104431684</v>
+      </c>
+      <c r="D79" t="s">
+        <v>73</v>
+      </c>
+      <c r="E79" t="s">
+        <v>74</v>
+      </c>
+      <c r="F79" t="s">
+        <v>71</v>
+      </c>
+      <c r="G79" s="4">
+        <v>44027</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80">
+        <v>104431641</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" t="s">
+        <v>70</v>
+      </c>
+      <c r="F80" t="s">
+        <v>71</v>
+      </c>
+      <c r="G80" s="4">
+        <v>45110</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>158</v>
+      </c>
+      <c r="C81">
+        <v>104431621</v>
+      </c>
+      <c r="D81" t="s">
+        <v>89</v>
+      </c>
+      <c r="E81" t="s">
+        <v>90</v>
+      </c>
+      <c r="F81" t="s">
+        <v>71</v>
+      </c>
+      <c r="G81" s="4">
+        <v>42771</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82">
+        <v>104431592</v>
+      </c>
+      <c r="D82" t="s">
+        <v>126</v>
+      </c>
+      <c r="E82" t="s">
+        <v>127</v>
+      </c>
+      <c r="F82" t="s">
+        <v>71</v>
+      </c>
+      <c r="G82" s="4">
+        <v>44514</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>160</v>
+      </c>
+      <c r="C83">
+        <v>104431624</v>
+      </c>
+      <c r="D83" t="s">
+        <v>89</v>
+      </c>
+      <c r="E83" t="s">
+        <v>90</v>
+      </c>
+      <c r="F83" t="s">
+        <v>71</v>
+      </c>
+      <c r="G83" s="4">
+        <v>43981</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84">
+        <v>104431615</v>
+      </c>
+      <c r="D84" t="s">
+        <v>77</v>
+      </c>
+      <c r="E84" t="s">
+        <v>78</v>
+      </c>
+      <c r="F84" t="s">
+        <v>71</v>
+      </c>
+      <c r="G84" s="4">
+        <v>43962</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>162</v>
+      </c>
+      <c r="C85">
+        <v>104431598</v>
+      </c>
+      <c r="D85" t="s">
+        <v>126</v>
+      </c>
+      <c r="E85" t="s">
+        <v>127</v>
+      </c>
+      <c r="F85" t="s">
+        <v>71</v>
+      </c>
+      <c r="G85" s="4">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>163</v>
+      </c>
+      <c r="C86">
+        <v>104431670</v>
+      </c>
+      <c r="D86" t="s">
+        <v>73</v>
+      </c>
+      <c r="E86" t="s">
+        <v>74</v>
+      </c>
+      <c r="F86" t="s">
+        <v>71</v>
+      </c>
+      <c r="G86" s="4">
+        <v>45115</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>164</v>
+      </c>
+      <c r="C87">
+        <v>104431633</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" t="s">
+        <v>70</v>
+      </c>
+      <c r="F87" t="s">
+        <v>71</v>
+      </c>
+      <c r="G87" s="4">
+        <v>43507</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>165</v>
+      </c>
+      <c r="C88">
+        <v>104431634</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" t="s">
+        <v>70</v>
+      </c>
+      <c r="F88" t="s">
+        <v>71</v>
+      </c>
+      <c r="G88" s="4">
+        <v>43701</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>166</v>
+      </c>
+      <c r="C89">
+        <v>104431609</v>
+      </c>
+      <c r="D89" t="s">
+        <v>77</v>
+      </c>
+      <c r="E89" t="s">
+        <v>78</v>
+      </c>
+      <c r="F89" t="s">
+        <v>71</v>
+      </c>
+      <c r="G89" s="4">
+        <v>42771</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>167</v>
+      </c>
+      <c r="C90">
+        <v>104431630</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" t="s">
+        <v>70</v>
+      </c>
+      <c r="F90" t="s">
+        <v>71</v>
+      </c>
+      <c r="G90" s="4">
+        <v>44237</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>168</v>
+      </c>
+      <c r="C91">
+        <v>104431663</v>
+      </c>
+      <c r="D91" t="s">
+        <v>73</v>
+      </c>
+      <c r="E91" t="s">
+        <v>74</v>
+      </c>
+      <c r="F91" t="s">
+        <v>71</v>
+      </c>
+      <c r="G91" s="4">
+        <v>45104</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>169</v>
+      </c>
+      <c r="C92">
+        <v>104431631</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" t="s">
+        <v>70</v>
+      </c>
+      <c r="F92" t="s">
+        <v>71</v>
+      </c>
+      <c r="G92" s="4">
+        <v>43577</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>170</v>
+      </c>
+      <c r="C93">
+        <v>104431601</v>
+      </c>
+      <c r="D93" t="s">
+        <v>77</v>
+      </c>
+      <c r="E93" t="s">
+        <v>78</v>
+      </c>
+      <c r="F93" t="s">
+        <v>71</v>
+      </c>
+      <c r="G93" s="4">
+        <v>44626</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>171</v>
+      </c>
+      <c r="C94">
+        <v>104431668</v>
+      </c>
+      <c r="D94" t="s">
+        <v>73</v>
+      </c>
+      <c r="E94" t="s">
+        <v>74</v>
+      </c>
+      <c r="F94" t="s">
+        <v>71</v>
+      </c>
+      <c r="G94" s="4">
+        <v>42763</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>172</v>
+      </c>
+      <c r="C95">
+        <v>104431627</v>
+      </c>
+      <c r="D95" t="s">
+        <v>89</v>
+      </c>
+      <c r="E95" t="s">
+        <v>90</v>
+      </c>
+      <c r="F95" t="s">
+        <v>71</v>
+      </c>
+      <c r="G95" s="4">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>173</v>
+      </c>
+      <c r="C96">
+        <v>104431653</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" t="s">
+        <v>70</v>
+      </c>
+      <c r="F96" t="s">
+        <v>71</v>
+      </c>
+      <c r="G96" s="4">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>174</v>
+      </c>
+      <c r="C97">
+        <v>104431588</v>
+      </c>
+      <c r="D97" t="s">
+        <v>126</v>
+      </c>
+      <c r="E97" t="s">
+        <v>127</v>
+      </c>
+      <c r="F97" t="s">
+        <v>71</v>
+      </c>
+      <c r="G97" s="4">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>175</v>
+      </c>
+      <c r="C98">
+        <v>104431677</v>
+      </c>
+      <c r="D98" t="s">
+        <v>73</v>
+      </c>
+      <c r="E98" t="s">
+        <v>74</v>
+      </c>
+      <c r="F98" t="s">
+        <v>71</v>
+      </c>
+      <c r="G98" s="4">
+        <v>43011</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>176</v>
+      </c>
+      <c r="C99">
+        <v>104431656</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" t="s">
+        <v>70</v>
+      </c>
+      <c r="F99" t="s">
+        <v>71</v>
+      </c>
+      <c r="G99" s="4">
+        <v>43948</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>177</v>
+      </c>
+      <c r="C100">
+        <v>104431593</v>
+      </c>
+      <c r="D100" t="s">
+        <v>126</v>
+      </c>
+      <c r="E100" t="s">
+        <v>127</v>
+      </c>
+      <c r="F100" t="s">
+        <v>71</v>
+      </c>
+      <c r="G100" s="4">
+        <v>45109</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>178</v>
+      </c>
+      <c r="C101">
+        <v>104431596</v>
+      </c>
+      <c r="D101" t="s">
+        <v>126</v>
+      </c>
+      <c r="E101" t="s">
+        <v>127</v>
+      </c>
+      <c r="F101" t="s">
+        <v>71</v>
+      </c>
+      <c r="G101" s="4">
+        <v>44261</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>179</v>
+      </c>
+      <c r="C102">
+        <v>104431660</v>
+      </c>
+      <c r="D102" t="s">
+        <v>73</v>
+      </c>
+      <c r="E102" t="s">
+        <v>74</v>
+      </c>
+      <c r="F102" t="s">
+        <v>71</v>
+      </c>
+      <c r="G102" s="4">
+        <v>44956</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>169</v>
+      </c>
+      <c r="C103">
+        <v>104431631</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" t="s">
+        <v>70</v>
+      </c>
+      <c r="F103" t="s">
+        <v>71</v>
+      </c>
+      <c r="G103" s="4">
+        <v>43577</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>170</v>
+      </c>
+      <c r="C104">
+        <v>104431601</v>
+      </c>
+      <c r="D104" t="s">
+        <v>77</v>
+      </c>
+      <c r="E104" t="s">
+        <v>78</v>
+      </c>
+      <c r="F104" t="s">
+        <v>71</v>
+      </c>
+      <c r="G104" s="4">
+        <v>44626</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>171</v>
+      </c>
+      <c r="C105">
+        <v>104431668</v>
+      </c>
+      <c r="D105" t="s">
+        <v>73</v>
+      </c>
+      <c r="E105" t="s">
+        <v>74</v>
+      </c>
+      <c r="F105" t="s">
+        <v>71</v>
+      </c>
+      <c r="G105" s="4">
+        <v>42763</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>172</v>
+      </c>
+      <c r="C106">
+        <v>104431627</v>
+      </c>
+      <c r="D106" t="s">
+        <v>89</v>
+      </c>
+      <c r="E106" t="s">
+        <v>90</v>
+      </c>
+      <c r="F106" t="s">
+        <v>71</v>
+      </c>
+      <c r="G106" s="4">
+        <v>45369</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>173</v>
+      </c>
+      <c r="C107">
+        <v>104431653</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" t="s">
+        <v>70</v>
+      </c>
+      <c r="F107" t="s">
+        <v>71</v>
+      </c>
+      <c r="G107" s="4">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>174</v>
+      </c>
+      <c r="C108">
+        <v>104431588</v>
+      </c>
+      <c r="D108" t="s">
+        <v>126</v>
+      </c>
+      <c r="E108" t="s">
+        <v>127</v>
+      </c>
+      <c r="F108" t="s">
+        <v>71</v>
+      </c>
+      <c r="G108" s="4">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>175</v>
+      </c>
+      <c r="C109">
+        <v>104431677</v>
+      </c>
+      <c r="D109" t="s">
+        <v>73</v>
+      </c>
+      <c r="E109" t="s">
+        <v>74</v>
+      </c>
+      <c r="F109" t="s">
+        <v>71</v>
+      </c>
+      <c r="G109" s="4">
+        <v>43011</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>176</v>
+      </c>
+      <c r="C110">
+        <v>104431656</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" t="s">
+        <v>70</v>
+      </c>
+      <c r="F110" t="s">
+        <v>71</v>
+      </c>
+      <c r="G110" s="4">
+        <v>43948</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>177</v>
+      </c>
+      <c r="C111">
+        <v>104431593</v>
+      </c>
+      <c r="D111" t="s">
+        <v>126</v>
+      </c>
+      <c r="E111" t="s">
+        <v>127</v>
+      </c>
+      <c r="F111" t="s">
+        <v>71</v>
+      </c>
+      <c r="G111" s="4">
+        <v>45109</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>178</v>
+      </c>
+      <c r="C112">
+        <v>104431596</v>
+      </c>
+      <c r="D112" t="s">
+        <v>126</v>
+      </c>
+      <c r="E112" t="s">
+        <v>127</v>
+      </c>
+      <c r="F112" t="s">
+        <v>71</v>
+      </c>
+      <c r="G112" s="4">
+        <v>44261</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>